--- a/contratos/contratos-3-2013.xlsx
+++ b/contratos/contratos-3-2013.xlsx
@@ -526,7 +526,7 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>MATELEC INGENIERIA S.R.L.</t>
@@ -562,7 +562,7 @@
     <t>PEREZ RUBEN</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>SERVICER S.A.</t>
@@ -595,10 +595,10 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>COOP. DE PROVISION DE OBRAS Y SERVICIOS PUBLICOS URUGUAY LTDA.</t>
@@ -1060,469 +1060,469 @@
     <t>23</t>
   </si>
   <si>
-    <t>3.295,00</t>
-  </si>
-  <si>
-    <t>2.339,00</t>
-  </si>
-  <si>
-    <t>2.900,00</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>122.000,00</t>
-  </si>
-  <si>
-    <t>10.703,55</t>
-  </si>
-  <si>
-    <t>69.814,35</t>
-  </si>
-  <si>
-    <t>558,96</t>
-  </si>
-  <si>
-    <t>279,43</t>
-  </si>
-  <si>
-    <t>11.114,34</t>
-  </si>
-  <si>
-    <t>20,08</t>
-  </si>
-  <si>
-    <t>41,16</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>28.653,45</t>
-  </si>
-  <si>
-    <t>3.264,00</t>
-  </si>
-  <si>
-    <t>431,24</t>
-  </si>
-  <si>
-    <t>178,50</t>
-  </si>
-  <si>
-    <t>14.002,62</t>
-  </si>
-  <si>
-    <t>17,80</t>
-  </si>
-  <si>
-    <t>8.048,00</t>
-  </si>
-  <si>
-    <t>254,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>37.785,60</t>
-  </si>
-  <si>
-    <t>2.790,00</t>
-  </si>
-  <si>
-    <t>13.703,31</t>
-  </si>
-  <si>
-    <t>6.338,14</t>
-  </si>
-  <si>
-    <t>354,00</t>
-  </si>
-  <si>
-    <t>1.487,00</t>
-  </si>
-  <si>
-    <t>21,00</t>
-  </si>
-  <si>
-    <t>5.987,50</t>
-  </si>
-  <si>
-    <t>1.708,88</t>
-  </si>
-  <si>
-    <t>88,00</t>
-  </si>
-  <si>
-    <t>1.230,00</t>
-  </si>
-  <si>
-    <t>34.859,80</t>
-  </si>
-  <si>
-    <t>1.380,00</t>
-  </si>
-  <si>
-    <t>380,00</t>
-  </si>
-  <si>
-    <t>460,00</t>
-  </si>
-  <si>
-    <t>548,68</t>
-  </si>
-  <si>
-    <t>3.659,24</t>
-  </si>
-  <si>
-    <t>464,69</t>
-  </si>
-  <si>
-    <t>2.640,00</t>
-  </si>
-  <si>
-    <t>754,20</t>
-  </si>
-  <si>
-    <t>3.021,54</t>
-  </si>
-  <si>
-    <t>4.527,18</t>
-  </si>
-  <si>
-    <t>437,00</t>
-  </si>
-  <si>
-    <t>226,60</t>
-  </si>
-  <si>
-    <t>346,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>375,00</t>
-  </si>
-  <si>
-    <t>181,50</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>19.320,00</t>
-  </si>
-  <si>
-    <t>328,00</t>
-  </si>
-  <si>
-    <t>110,00</t>
-  </si>
-  <si>
-    <t>1.402,21</t>
-  </si>
-  <si>
-    <t>720,00</t>
-  </si>
-  <si>
-    <t>2.218,00</t>
-  </si>
-  <si>
-    <t>6.165,00</t>
-  </si>
-  <si>
-    <t>2.780,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>143.043,05</t>
-  </si>
-  <si>
-    <t>150.000,00</t>
-  </si>
-  <si>
-    <t>680.822,45</t>
-  </si>
-  <si>
-    <t>20.267,50</t>
-  </si>
-  <si>
-    <t>28,76</t>
-  </si>
-  <si>
-    <t>1.209,65</t>
-  </si>
-  <si>
-    <t>1.363,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>339,50</t>
-  </si>
-  <si>
-    <t>1.551,90</t>
-  </si>
-  <si>
-    <t>20,80</t>
-  </si>
-  <si>
-    <t>400,97</t>
-  </si>
-  <si>
-    <t>35,00</t>
-  </si>
-  <si>
-    <t>8,99</t>
-  </si>
-  <si>
-    <t>18,00</t>
-  </si>
-  <si>
-    <t>83.289,50</t>
-  </si>
-  <si>
-    <t>231,00</t>
-  </si>
-  <si>
-    <t>3.895,00</t>
-  </si>
-  <si>
-    <t>465,00</t>
-  </si>
-  <si>
-    <t>507,77</t>
-  </si>
-  <si>
-    <t>278,88</t>
-  </si>
-  <si>
-    <t>37,40</t>
-  </si>
-  <si>
-    <t>17.357,00</t>
-  </si>
-  <si>
-    <t>2.804,00</t>
-  </si>
-  <si>
-    <t>129,00</t>
-  </si>
-  <si>
-    <t>8.302,00</t>
-  </si>
-  <si>
-    <t>127,60</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>1.920,00</t>
-  </si>
-  <si>
-    <t>1.858,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>1.333,36</t>
-  </si>
-  <si>
-    <t>1.535,00</t>
-  </si>
-  <si>
-    <t>11.384,80</t>
-  </si>
-  <si>
-    <t>98.250,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>768,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>13.147,66</t>
-  </si>
-  <si>
-    <t>965,00</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>4.900,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>520,00</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
-    <t>615,00</t>
-  </si>
-  <si>
-    <t>570,00</t>
-  </si>
-  <si>
-    <t>1.270,00</t>
-  </si>
-  <si>
-    <t>4.820,00</t>
-  </si>
-  <si>
-    <t>185,96</t>
-  </si>
-  <si>
-    <t>79,23</t>
-  </si>
-  <si>
-    <t>9.210,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>716,80</t>
-  </si>
-  <si>
-    <t>2.830,00</t>
-  </si>
-  <si>
-    <t>977,44</t>
-  </si>
-  <si>
-    <t>27.830,00</t>
-  </si>
-  <si>
-    <t>2.008,00</t>
-  </si>
-  <si>
-    <t>1.335,67</t>
-  </si>
-  <si>
-    <t>284,00</t>
-  </si>
-  <si>
-    <t>1.572,35</t>
-  </si>
-  <si>
-    <t>9.413,00</t>
-  </si>
-  <si>
-    <t>4.318,11</t>
-  </si>
-  <si>
-    <t>798,90</t>
-  </si>
-  <si>
-    <t>1.505,88</t>
-  </si>
-  <si>
-    <t>402,00</t>
-  </si>
-  <si>
-    <t>341,00</t>
-  </si>
-  <si>
-    <t>815,38</t>
-  </si>
-  <si>
-    <t>3.475,00</t>
-  </si>
-  <si>
-    <t>300,22</t>
-  </si>
-  <si>
-    <t>890,00</t>
-  </si>
-  <si>
-    <t>56.870,72</t>
-  </si>
-  <si>
-    <t>18.330,00</t>
-  </si>
-  <si>
-    <t>55,81</t>
-  </si>
-  <si>
-    <t>522.697,37</t>
-  </si>
-  <si>
-    <t>1.650,00</t>
-  </si>
-  <si>
-    <t>1.625,00</t>
-  </si>
-  <si>
-    <t>178.900,00</t>
-  </si>
-  <si>
-    <t>17.500,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>202.500,00</t>
-  </si>
-  <si>
-    <t>62.500,00</t>
-  </si>
-  <si>
-    <t>65.000,00</t>
-  </si>
-  <si>
-    <t>223.000,00</t>
-  </si>
-  <si>
-    <t>32.000,00</t>
-  </si>
-  <si>
-    <t>196.300,00</t>
-  </si>
-  <si>
-    <t>29.500,00</t>
-  </si>
-  <si>
-    <t>12.150,00</t>
-  </si>
-  <si>
-    <t>2.125,00</t>
-  </si>
-  <si>
-    <t>544,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
+    <t>3295.00</t>
+  </si>
+  <si>
+    <t>2339.00</t>
+  </si>
+  <si>
+    <t>2900.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>122000.00</t>
+  </si>
+  <si>
+    <t>10703.55</t>
+  </si>
+  <si>
+    <t>69814.35</t>
+  </si>
+  <si>
+    <t>558.96</t>
+  </si>
+  <si>
+    <t>279.43</t>
+  </si>
+  <si>
+    <t>11114.34</t>
+  </si>
+  <si>
+    <t>20.08</t>
+  </si>
+  <si>
+    <t>41.16</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>28653.45</t>
+  </si>
+  <si>
+    <t>3264.00</t>
+  </si>
+  <si>
+    <t>431.24</t>
+  </si>
+  <si>
+    <t>178.50</t>
+  </si>
+  <si>
+    <t>14002.62</t>
+  </si>
+  <si>
+    <t>17.80</t>
+  </si>
+  <si>
+    <t>8048.00</t>
+  </si>
+  <si>
+    <t>254.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>37785.60</t>
+  </si>
+  <si>
+    <t>2790.00</t>
+  </si>
+  <si>
+    <t>13703.31</t>
+  </si>
+  <si>
+    <t>6338.14</t>
+  </si>
+  <si>
+    <t>354.00</t>
+  </si>
+  <si>
+    <t>1487.00</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>5987.50</t>
+  </si>
+  <si>
+    <t>1708.88</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>1230.00</t>
+  </si>
+  <si>
+    <t>34859.80</t>
+  </si>
+  <si>
+    <t>1380.00</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>460.00</t>
+  </si>
+  <si>
+    <t>548.68</t>
+  </si>
+  <si>
+    <t>3659.24</t>
+  </si>
+  <si>
+    <t>464.69</t>
+  </si>
+  <si>
+    <t>2640.00</t>
+  </si>
+  <si>
+    <t>754.20</t>
+  </si>
+  <si>
+    <t>3021.54</t>
+  </si>
+  <si>
+    <t>4527.18</t>
+  </si>
+  <si>
+    <t>437.00</t>
+  </si>
+  <si>
+    <t>226.60</t>
+  </si>
+  <si>
+    <t>346.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>375.00</t>
+  </si>
+  <si>
+    <t>181.50</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>19320.00</t>
+  </si>
+  <si>
+    <t>328.00</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>1402.21</t>
+  </si>
+  <si>
+    <t>720.00</t>
+  </si>
+  <si>
+    <t>2218.00</t>
+  </si>
+  <si>
+    <t>6165.00</t>
+  </si>
+  <si>
+    <t>2780.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>143043.05</t>
+  </si>
+  <si>
+    <t>150000.00</t>
+  </si>
+  <si>
+    <t>680822.45</t>
+  </si>
+  <si>
+    <t>20267.50</t>
+  </si>
+  <si>
+    <t>28.76</t>
+  </si>
+  <si>
+    <t>1209.65</t>
+  </si>
+  <si>
+    <t>1363.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>339.50</t>
+  </si>
+  <si>
+    <t>1551.90</t>
+  </si>
+  <si>
+    <t>20.80</t>
+  </si>
+  <si>
+    <t>400.97</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>8.99</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>83289.50</t>
+  </si>
+  <si>
+    <t>231.00</t>
+  </si>
+  <si>
+    <t>3895.00</t>
+  </si>
+  <si>
+    <t>465.00</t>
+  </si>
+  <si>
+    <t>507.77</t>
+  </si>
+  <si>
+    <t>278.88</t>
+  </si>
+  <si>
+    <t>37.40</t>
+  </si>
+  <si>
+    <t>17357.00</t>
+  </si>
+  <si>
+    <t>2804.00</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>8302.00</t>
+  </si>
+  <si>
+    <t>127.60</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>1920.00</t>
+  </si>
+  <si>
+    <t>1858.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>1333.36</t>
+  </si>
+  <si>
+    <t>1535.00</t>
+  </si>
+  <si>
+    <t>11384.80</t>
+  </si>
+  <si>
+    <t>98250.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>768.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>13147.66</t>
+  </si>
+  <si>
+    <t>965.00</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>4900.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>520.00</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>615.00</t>
+  </si>
+  <si>
+    <t>570.00</t>
+  </si>
+  <si>
+    <t>1270.00</t>
+  </si>
+  <si>
+    <t>4820.00</t>
+  </si>
+  <si>
+    <t>185.96</t>
+  </si>
+  <si>
+    <t>79.23</t>
+  </si>
+  <si>
+    <t>9210.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>716.80</t>
+  </si>
+  <si>
+    <t>2830.00</t>
+  </si>
+  <si>
+    <t>977.44</t>
+  </si>
+  <si>
+    <t>27830.00</t>
+  </si>
+  <si>
+    <t>2008.00</t>
+  </si>
+  <si>
+    <t>1335.67</t>
+  </si>
+  <si>
+    <t>284.00</t>
+  </si>
+  <si>
+    <t>1572.35</t>
+  </si>
+  <si>
+    <t>9413.00</t>
+  </si>
+  <si>
+    <t>4318.11</t>
+  </si>
+  <si>
+    <t>798.90</t>
+  </si>
+  <si>
+    <t>1505.88</t>
+  </si>
+  <si>
+    <t>402.00</t>
+  </si>
+  <si>
+    <t>341.00</t>
+  </si>
+  <si>
+    <t>815.38</t>
+  </si>
+  <si>
+    <t>3475.00</t>
+  </si>
+  <si>
+    <t>300.22</t>
+  </si>
+  <si>
+    <t>890.00</t>
+  </si>
+  <si>
+    <t>56870.72</t>
+  </si>
+  <si>
+    <t>18330.00</t>
+  </si>
+  <si>
+    <t>55.81</t>
+  </si>
+  <si>
+    <t>522697.37</t>
+  </si>
+  <si>
+    <t>1650.00</t>
+  </si>
+  <si>
+    <t>1625.00</t>
+  </si>
+  <si>
+    <t>178900.00</t>
+  </si>
+  <si>
+    <t>17500.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>202500.00</t>
+  </si>
+  <si>
+    <t>62500.00</t>
+  </si>
+  <si>
+    <t>65000.00</t>
+  </si>
+  <si>
+    <t>223000.00</t>
+  </si>
+  <si>
+    <t>32000.00</t>
+  </si>
+  <si>
+    <t>196300.00</t>
+  </si>
+  <si>
+    <t>29500.00</t>
+  </si>
+  <si>
+    <t>12150.00</t>
+  </si>
+  <si>
+    <t>2125.00</t>
+  </si>
+  <si>
+    <t>544.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
   </si>
 </sst>
 </file>
